--- a/generated_docs/WR_89732091_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89732091_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/17/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89732091_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89732091_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I52"/>
+  <dimension ref="A2:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10955.22</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,18 +765,18 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -795,11 +795,11 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,13 +867,13 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,13 +935,13 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,623 +1037,657 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr"/>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H25" s="16" t="n">
-        <v>5298.979999999999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
+      <c r="H26" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
         <is>
           <t>Tuesday (07/15/2025)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C29" s="8" t="inlineStr">
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr">
+      <c r="D30" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E29" s="8" t="inlineStr">
+      <c r="E30" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="F30" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G29" s="8" t="inlineStr">
+      <c r="G30" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H29" s="8" t="inlineStr">
+      <c r="H30" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="9" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B30" s="9" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C30" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="inlineStr">
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10" t="inlineStr"/>
-      <c r="H30" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="12" t="inlineStr">
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10" t="inlineStr"/>
+      <c r="H31" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B31" s="12" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C31" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D31" s="12" t="inlineStr">
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E31" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F31" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13" t="inlineStr"/>
-      <c r="H31" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="E32" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13" t="inlineStr"/>
+      <c r="H32" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B32" s="9" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C32" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="inlineStr"/>
-      <c r="H32" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="inlineStr">
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10" t="inlineStr"/>
+      <c r="H33" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B33" s="12" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C33" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="12" t="inlineStr">
+      <c r="C34" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E33" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="inlineStr"/>
-      <c r="H33" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="inlineStr">
+      <c r="E34" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13" t="inlineStr"/>
+      <c r="H34" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="B35" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10" t="inlineStr"/>
-      <c r="H34" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="inlineStr">
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10" t="inlineStr"/>
+      <c r="H35" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B35" s="12" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
+      <c r="C36" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="12" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13" t="inlineStr"/>
-      <c r="H35" s="14" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="15" t="inlineStr">
+      <c r="E36" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13" t="inlineStr"/>
+      <c r="H36" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H36" s="16" t="n">
-        <v>2305.66</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="H37" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
         <is>
           <t>Wednesday (07/16/2025)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C40" s="8" t="inlineStr">
+      <c r="C41" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D40" s="8" t="inlineStr">
+      <c r="D41" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E40" s="8" t="inlineStr">
+      <c r="E41" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F40" s="8" t="inlineStr">
+      <c r="F41" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G40" s="8" t="inlineStr">
+      <c r="G41" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H40" s="8" t="inlineStr">
+      <c r="H41" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B41" s="9" t="inlineStr">
+      <c r="B42" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="inlineStr"/>
-      <c r="H41" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B42" s="12" t="inlineStr">
+      <c r="B43" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="15" t="inlineStr">
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H43" s="16" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7" t="inlineStr">
+      <c r="H44" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/17/2025)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C47" s="8" t="inlineStr">
+      <c r="C48" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D47" s="8" t="inlineStr">
+      <c r="D48" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E47" s="8" t="inlineStr">
+      <c r="E48" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F47" s="8" t="inlineStr">
+      <c r="F48" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G47" s="8" t="inlineStr">
+      <c r="G48" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H47" s="8" t="inlineStr">
+      <c r="H48" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>Point 01</t>
         </is>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
         <is>
           <t>ANC-EXP-8-96-D34</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
         </is>
       </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>790.5599999999999</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="inlineStr"/>
+      <c r="H49" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B49" s="12" t="inlineStr">
+      <c r="B50" s="12" t="inlineStr">
         <is>
           <t>ANC-EXP-8-96-D34</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="12" t="inlineStr">
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
         <is>
           <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
         </is>
       </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>790.5599999999999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13" t="inlineStr"/>
+      <c r="H50" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B51" s="9" t="inlineStr">
         <is>
           <t>ANC-EXP-8-96-D34</t>
         </is>
       </c>
-      <c r="C50" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="9" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
         </is>
       </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10" t="inlineStr"/>
-      <c r="H50" s="11" t="n">
-        <v>790.5599999999999</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="inlineStr">
+      <c r="E51" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10" t="inlineStr"/>
+      <c r="H51" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B51" s="12" t="inlineStr">
+      <c r="B52" s="12" t="inlineStr">
         <is>
           <t>ANC-EXP-8-96-D34</t>
         </is>
       </c>
-      <c r="C51" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="12" t="inlineStr">
+      <c r="C52" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="12" t="inlineStr">
         <is>
           <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
         </is>
       </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>790.5599999999999</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="15" t="inlineStr">
+      <c r="E52" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="13" t="inlineStr"/>
+      <c r="H52" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H52" s="16" t="n">
-        <v>3162.24</v>
+      <c r="H53" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A44:G44"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A40:H40"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A52:G52"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A47:H47"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A37:G37"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89732091_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89732091_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I53"/>
+  <dimension ref="A2:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>10955.22</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P11</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,18 +761,18 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +782,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -795,11 +791,11 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
@@ -867,13 +863,13 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="21">
@@ -935,13 +931,13 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="24">
@@ -1037,657 +1033,623 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="inlineStr">
+      <c r="A25" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H25" s="16" t="n">
+        <v>5298.979999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/15/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G29" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="11" t="n">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13" t="inlineStr"/>
+      <c r="H31" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C25" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D25" s="12" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E25" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13" t="inlineStr"/>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H26" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/15/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
+      <c r="H36" s="16" t="n">
+        <v>2305.66</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/16/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C30" s="8" t="inlineStr">
+      <c r="C40" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E30" s="8" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="F40" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G30" s="8" t="inlineStr">
+      <c r="G40" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H30" s="8" t="inlineStr">
+      <c r="H40" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E41" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10" t="inlineStr"/>
+      <c r="H41" s="11" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E42" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13" t="inlineStr"/>
+      <c r="H42" s="14" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H43" s="16" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/17/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D47" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>ANC-EXP-8-96-D34</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>790.5599999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B31" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C31" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10" t="inlineStr"/>
-      <c r="H31" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C32" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E32" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13" t="inlineStr"/>
-      <c r="H32" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>ANC-EXP-8-96-D34</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>790.5599999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10" t="inlineStr"/>
-      <c r="H33" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="inlineStr">
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>ANC-EXP-8-96-D34</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>790.5599999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B34" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C34" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E34" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13" t="inlineStr"/>
-      <c r="H34" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B36" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C36" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E36" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13" t="inlineStr"/>
-      <c r="H36" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="15" t="inlineStr">
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>ANC-EXP-8-96-D34</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>790.5599999999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H37" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/16/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D41" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E41" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F41" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G41" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H41" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="inlineStr"/>
-      <c r="H42" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B43" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C43" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13" t="inlineStr"/>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H44" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/17/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B48" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C48" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D48" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E48" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F48" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G48" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="inlineStr">
-        <is>
-          <t>ANC-EXP-8-96-D34</t>
-        </is>
-      </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
-        </is>
-      </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B50" s="12" t="inlineStr">
-        <is>
-          <t>ANC-EXP-8-96-D34</t>
-        </is>
-      </c>
-      <c r="C50" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
-        </is>
-      </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B51" s="9" t="inlineStr">
-        <is>
-          <t>ANC-EXP-8-96-D34</t>
-        </is>
-      </c>
-      <c r="C51" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
-        </is>
-      </c>
-      <c r="E51" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="10" t="inlineStr"/>
-      <c r="H51" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B52" s="12" t="inlineStr">
-        <is>
-          <t>ANC-EXP-8-96-D34</t>
-        </is>
-      </c>
-      <c r="C52" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Expanding,8in,96in,Db Eye 3/4in</t>
-        </is>
-      </c>
-      <c r="E52" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13" t="inlineStr"/>
-      <c r="H52" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H53" s="16" t="n">
-        <v>0</v>
+      <c r="H52" s="16" t="n">
+        <v>3162.24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A46:H46"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A52:G52"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A37:G37"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
